--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/78_Van_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/78_Van_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81E0159A-E588-4998-B545-0690AA000438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6D05DB0-0706-42E7-89AC-DD9F76BB7D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="699" xr2:uid="{B56EDFE7-DC93-48BA-8F61-D3CC7A4AD656}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="699" xr2:uid="{20D8C1A8-AA85-4B33-88EA-B172ABA2C6C1}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -977,14 +977,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{119EC157-C030-4A2C-A8DD-60BDE89CED4A}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{14547E8B-8A03-4932-AD6B-85395FC268B9}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{DF1E128C-4033-41DE-9865-E7C31C7A1509}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{38A0B5F4-1A79-4282-A696-B68AE57334B9}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{51D47C68-50FD-4F4B-BEE4-2C1C764F4F9F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{CD6B5547-36C0-4008-B5C7-568761EEEF33}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{3D892871-F2B2-4283-9271-8CF70A551D7F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{13062299-410E-44A3-A525-539EF50D679E}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{33F914C2-BF97-41ED-B7AF-07C62A5099E3}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{CE4065CC-D411-40AC-B490-9E168727CDEB}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{22A65BD7-66C8-46B7-B8E1-599E9F47C47B}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{35542E6F-F94F-4F0B-9354-8125E048AADA}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{76C42ABC-0ACD-4BDA-A8EC-EFDFEAFCCCDA}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{596D63A9-05B6-4A1A-9F4D-AB24E56FC13C}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{25BFE4FF-C900-473D-BCFD-398944F90ABA}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{D1DB43C9-E349-4D6A-A809-631B58C59645}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAC4644-5EB2-479C-B3EA-5AF22DFD63F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FACD0E1-F28D-460B-BCA4-22AEB5264AC9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2597,18 +2597,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B4A52423-4D4A-4881-9146-B5F2F26A23EF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F4BBD97E-1115-43B7-A75F-01F8234C886A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{49B6CE10-C356-4A13-A9DC-3FA1E4A62228}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{088FBCE1-DCC1-4EAA-BE49-1D5C02FB0B25}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{70205B15-A260-4C5F-9973-46D26D0ACBE1}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DFE167BF-B362-4DB2-A6A9-4E50B3CE8EEF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{164221BD-AB88-4080-BFC6-0450A6FF4D4C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9755843A-F66C-4807-A6C8-24DBB970805E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{072336E1-1227-47E5-97F3-669ED3BCB882}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5CD71802-B297-42EA-9BB5-D4FAEC098FEC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4EEB55DB-87BA-4EDC-BAB1-9B70F710FDCD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{76D9B41D-AE73-452F-992E-7001D6689713}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BEF3F0FE-DA09-4E98-AC64-EF6424B5144F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F93678DF-D5D2-4EA3-A19B-CC1B0E09428C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EC30A608-C90F-44D1-A24A-1FE8D6677B52}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C6A26479-6C7F-45CA-A032-2A5B896C9B7C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C4752B71-B3BC-4EEB-A6B2-C4F68C4A91DA}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2C37E836-A548-4C31-B2CE-7F260B83627B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6EFF96BD-4DB3-4E80-9B66-D9696367EA3C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0F6BBC80-8A39-4AB1-B1ED-0BD2E74ADE39}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B1A7FDFC-BE76-49A6-A261-824A7BBAD574}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{922F332D-5749-43E9-A991-2500727B8696}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{601752F7-6459-4F5A-ABBB-AAC01E3EB4AF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{19648B31-E34B-4EE7-BA47-5F71C632B2EB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2621,7 +2621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67F0579-1EF6-41E2-A047-62E7C231F24A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F213A00-B374-4BC0-A539-F328EC9683F1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3844,18 +3844,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BC236710-3F65-4010-B40A-BA2C75DFCEA9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{406D515F-D3A9-4519-81E1-1B3F8CB499BD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{45986C30-FB6F-46B8-AE90-289975FE2AD7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1C40AB12-38D6-4E1F-A11D-B34349E8AD84}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D894A5E4-A9C6-436C-94BA-9032507D288B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5FD5F99B-756A-44F7-BE35-FA3B2D155BFF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D14677AB-7ED1-4CC9-9832-A1330A88E865}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2EC49874-1945-4B90-A38C-E2923AB9D1C2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EDE04D6A-303E-40D5-8BF6-E18653751B47}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FD577314-CB36-485A-8DDC-A811009E659B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D668E35A-01B4-4B29-B8AB-D6F0A59540B8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C5C2B7DE-525F-4BE4-AAA0-52CF7BDF2F10}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{74BF5ED4-8D6B-44EF-ABA3-5359124A5DA9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1E26CCE1-5EF2-428D-AF37-7F2106E287F7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8EEDB688-25F2-4866-96B3-3DDE9DE8728C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5B21F237-1E69-488F-ACB6-240132AC44EC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ADB366AD-F16E-443B-87B1-C9D3B84F31CD}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F8CF8FFF-40E0-4804-BB02-371CE02BCFC7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D59940F3-C39F-4F6B-AD3E-1FF83CB994EF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{03C464C4-5807-4B46-89CB-CCA702ADEC1A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{555FBF1B-7577-459E-A741-7F15B47C909E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{47548BB6-EBE4-440D-989E-D8D233F1E58F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{684B4156-F381-4A27-914A-F2230D6B7577}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E9F4766F-B41A-49DC-B5A6-1E4917DCF81E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3868,7 +3868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4344E5A-46FE-4610-ADB7-6DC7EDC9FEC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FF9251-E7D2-4C61-89D1-7B90BB7DC566}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5083,18 +5083,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F1451E0E-F801-4902-8742-AF3C8E40AF0E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{251BB88E-0E64-4594-893B-9FD4EA82A209}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6AAC6B56-E4F5-4A78-9026-1C132E7319A1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{527F953F-26EE-4404-A8FF-1780392E6979}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36419A1F-61BF-4394-8AC4-744320F4A152}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6DBE8E62-2C87-488E-9219-AB8D5DA982F1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4A0440D6-6BC9-45A7-BE07-2B0BD422A9AC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{953BE132-E80B-489D-942B-265579F85B64}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{57F81435-9B37-437A-9017-C126C7E65C37}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{19E94BD0-82D5-49F9-A6A2-09043A9D8EDF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F645A860-84D8-42FE-AE17-11C3A96CC214}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1AAA7504-184D-4649-87E7-E14769E0AFD5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F19F3EAC-D7D9-4319-AEA7-15FB94381923}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{96144239-BBE3-44FB-A227-FBC18CD5E13C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{73BDE5C3-15E3-4FFA-BFC5-81DF3EB73BE3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{53F18591-29B8-40BB-91BC-7DCE07574BEF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3FC614CE-C67A-4CFA-B0CB-ACA2788BE5B8}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{60B06257-1838-416F-9CF4-6A779AEA4EF6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5373E99F-A565-451B-82BD-762CC51EDDB5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FF862BC0-8745-4684-9561-8352F21B210A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6550F112-07B6-45EC-9A4A-795C81DD72DA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{511F2E99-24E9-486C-8F95-CF983328138C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C8F8DEEF-3C0A-41D8-AFE4-8EFFA3A46DC1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FF015613-9D2D-4AE5-BECE-7921B23028EC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5107,7 +5107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AA5B65-582F-473D-8DFE-5AE03F34BF7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CF4A7F-2546-4185-92E1-C48BE86474F2}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6312,18 +6312,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E412205F-6467-42F2-84C1-CF14F6DD11B9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{136DF53A-425D-48E5-A3D6-52B6AAF0BAC7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C20EC5E4-08FE-4267-804D-DE440A02F3E0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{29A6C7B7-AC5F-44F6-AF7A-7894DBA36CF5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{44255CF8-0694-4F9A-B2DE-3A7ED31BF974}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E915D092-1632-4761-B0E9-0E9FD3C91A81}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1F9AC011-89F8-43B0-A395-493633117858}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F5E0A13-0AE7-40DF-A88A-C9BC434129E4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FD7C43FA-E586-4896-9C08-D9339DA6F36A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B8C4F11F-9E4C-4948-9D16-E42E713648B2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A60B6913-BE50-496A-9BA3-DC223008444F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A5206505-E242-4CBD-95F7-9E5E57051C83}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{82588743-DE76-47C6-9D75-5BDCD2BF43C9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{008F68EA-C4D7-49F6-9A22-0C5257E0CAD3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DBD403E4-93DF-4E24-A06B-662EB6B0DDF7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8FE1C61A-4B0D-41C5-B8AE-4DE991345525}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7658CB21-C66E-4F43-84E0-CAE8DD84875B}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4489B049-EA39-44E1-9188-8C4262F79CA9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8CA3C769-84EF-47E3-96FF-94F69C1087C3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{03E4F43C-3544-4EA0-9FC1-72A78EB73251}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B6527514-D7EC-451D-B449-08C5FDFC2D79}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2E2C846A-0333-4C38-B234-F7DA3FEE2D98}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D313CFB0-1F6D-41BC-A8D7-914101FA0E49}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5074F2DD-4A4B-4856-B805-ED050CF67E28}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6336,7 +6336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D183198-5738-4F24-A981-2ACBECD3D672}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725D6ED2-29A9-43B0-9693-E39BBD64875F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7579,18 +7579,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8D15A384-043B-4D5C-AA57-0616D0A4D915}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D6E72514-B17F-4865-8719-9957F5503E39}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{16109262-11FF-41C3-96D3-325AC192146E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1A16B51D-8B26-47BC-A25E-C0BD72F0AE31}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{38F62F94-D9EE-412B-A5E7-D9BC81C790F0}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{ED7D8471-41B4-41B0-A5D9-1BE7F3E56CC7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17591DB0-45FA-4EFE-91CF-73F0BA168D3D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{113155FF-6297-440B-8C2E-4A2C3789B28B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B314F3FC-1C54-4A45-A695-6034360E7D7A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3395E3D3-078B-4649-9AC1-B0F87C2809ED}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F1DEEDD8-03A5-446C-86A3-60FEADFB25B5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{36198C62-1CEE-4EE2-B2A1-50B6353D48C5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D2AF476D-6010-459A-A2B2-0640C726502B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7B85930D-F37C-43DF-9022-F69C2BC059E7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EAA13395-07C6-4063-8EC2-F9384FBF2519}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{59335FCC-A1D9-4D7A-B410-2202F79C891A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1E25C867-95F5-4638-A1FF-854398A6EC62}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DD7919B5-759E-4B4B-8702-A09A98933984}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{844BC862-A490-404F-9E41-DCE9C765D2E8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D080ABD-EE0D-4713-A2EF-247BF47C4AE0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{30847CD1-8EED-44A1-B040-12D4F9A76832}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F5C67521-285F-4E4C-8EDF-61A284FCB141}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{813551A8-2AC5-4BEA-B35C-61EF0D3080A3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9EFB9A9D-3D02-4752-8AD1-5FBA96D180F1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7603,7 +7603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA2F0C3-6114-4192-8C08-71625AE07B14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334EC8AF-AD53-4255-87F2-9D2A7D536A7F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8846,18 +8846,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{22C50CCC-0BDE-4740-BB0A-5CA15CC27FB0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{47018C2A-233F-42AB-9E37-83359DABB2D8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{16807A65-B8F8-4918-8AD1-FA7853465CAB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6244F389-C4DC-4B04-88D6-DEDE32911E23}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{68574011-64BE-414A-8132-7C6CE2FA8D42}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3BEAF8A2-28A6-4073-893E-94B5A4D01E92}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{574EC698-E981-42EA-9E00-764B52392BA2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F29436F-E900-4BD3-A741-2680B91690BD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D466C7EC-AAE6-434B-BB51-2DEBF838A8D8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3E98B04D-876C-4A16-85ED-A7CF4E1B2591}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8D79A084-DCB9-4ED6-A388-623BFF371954}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7CDEEBF7-7A35-4F05-B7AE-1A61C13145C6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F1CD9F0F-D03C-48DB-94EE-1E47D3740C2D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B6878550-864F-42BA-85EC-E08439BC3D3F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AB6F00CD-03EB-4CC9-8B11-05D8A76E68A2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BEA3AF1E-365A-4F6B-A865-CC1478543F2B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{742C496E-373E-4355-85EE-CDA100D18B15}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{66C78B0F-1683-47DE-8FFB-365D87F21FEE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB54F150-8061-44A8-B489-BAEF0ECFD2F5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{907F4FF2-4E0A-47DA-B206-644530654C90}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7EE613C2-136C-47AC-9A24-E827CE6602B4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6DE5BF22-5077-42DD-A08B-426AB72D9B39}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FBD616F4-48B6-46B5-8BBE-C1816F4FBF8F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9D5F81F4-EC58-4E0D-BE2E-CFE8CC540A06}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8870,7 +8870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12CA771-E3E7-4405-A73C-C092282FD463}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A8AFD6-F1F2-4588-B7B2-44BF8C92CF72}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10105,18 +10105,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{51E78534-7218-4664-9AA5-65E69ACF64F8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D7C0FA30-1B55-4C4E-89E7-3AE2B5373E2F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E3C8C640-B45D-4645-86FA-C70BFCCA493A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D649478D-438A-44A6-98D2-0C24649C2AC0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8EEE9859-6D86-424D-9C27-5D2390D68D4F}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{87C9FF57-08EB-4159-A980-D4E8E814ACF4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{60D4C745-B068-402B-B716-996E0B62EFD3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC8BA8EB-58B9-4497-9113-3E821C1C7E99}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8E5BF168-C806-4E7E-B9FE-0133DBBE78BF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0210FA3B-0D6A-43FC-9483-D39AAD7DC613}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3D0E2F95-83BE-4ECC-BE77-3432F2116E9E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D5CC4760-6A01-4978-A92F-8FF90002D99E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8362BBAE-04C3-496A-A28A-2CBA823A8E0D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6618F7E1-5462-4B8D-8591-1000CC172B32}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0A772C48-43EA-4F9A-8A9A-12278F8ADF59}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{958BA54C-1CFA-41F5-AD78-0007CB969E2E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C5409FA6-ADB5-40F7-9DEE-5DECB1B3B396}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0D7415A5-AFEF-432D-95AA-E6009D95620E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EDF803E0-AD27-4080-ABC8-0E468EC7D412}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{105A3A85-54D3-48A7-8041-88503E0D4515}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{16CFC229-F90A-4A63-896B-E9B5B12057CB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E1258C8F-DAE7-40BD-B284-EBDDF54F40E3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B02588E7-BBDB-4C89-9EE5-FE3859A12824}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{715E904B-DEE2-4192-9551-C3032BB3A964}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10129,7 +10129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0C35B7-7CF6-470F-A1D5-FE77A95E9442}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4477CEF8-A106-496F-B747-E9DA1C284F9C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11364,18 +11364,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A700D12F-E166-433E-AA70-28FEAB56AF13}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7F91DBEA-2DCE-44B5-9FC1-1277F2397D64}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{344EF363-500F-42E3-977B-0D90C8593779}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{51465B8C-F67F-4A44-A1D9-29ADF9EC80B2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{284F2D2B-DB23-41D5-9405-AE23E21A0EF2}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{60C6F580-00F6-438D-85F5-926A55E09768}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{33164C4F-AA61-4A1A-B57E-B0E7924BDAA0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF855A1C-0F4C-4D35-93AE-912CFE7664FE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F5479934-7EC0-48B6-B7B7-8BBEB581FF60}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FBD9BCC0-124F-4A51-85F6-2AA5998C17BD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A07154B8-D34C-4DBB-A498-202B007AC939}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0CA01104-14A7-40A2-B4DD-960AD05750A7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6A0353B3-3069-4067-9C42-CF5BEB245E05}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{95112BAE-B0B7-452E-BD7A-6A4DCEE8CED0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DA8FC20C-4BF6-4AAE-A641-5460D1AEC691}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{893D2B93-D828-4719-A800-2E6861188E45}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{58DA5EBA-6FF5-4637-9C23-987A7BC259B3}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EFDE5721-1A24-486D-9FBB-6AF453F63500}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D46B158D-58D0-4C2B-A489-0CE4147BC480}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07F95D0A-031F-4D46-BB7C-19099A20296E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D0A16928-40F6-4B5B-A38D-2ECFFBD0CB17}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F86012A2-70D4-4F05-80A7-62B62B5F3931}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2830F677-BDBF-456D-8BD6-FB70ED4F93DE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D93E245E-FB40-4484-A640-E62EDBFABBA9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11388,7 +11388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA78D587-5E13-416E-A480-DFF582E9BE86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8347C5-2EE4-4E7A-96EC-9329065336DC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12615,18 +12615,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{98792FF2-5BB1-46D0-BAB5-1FC524C29460}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9DEEDE3C-B605-41A1-BB14-2C3BDA8450F2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8144295A-BC8D-437E-8E70-FA83CEC2B7E2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BA80EEA1-9952-4BAC-9EF3-5EC6E6509CA0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{31283651-1BC4-4693-A22D-E98CBD635490}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2E3FB82E-338F-46CB-8452-1A2E64151DA7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DDCD0D75-D7DA-40B7-AE5A-4815844D6EA0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{524B8F5C-AB04-4B50-95A5-49785635C082}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E132746B-E5F1-4D95-A64C-45525D4B90C5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4D9B2201-0512-4794-90FD-69DA981A4FDE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E29801AA-3C67-49CF-8DEE-152C9C5D49EB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D8B4FA80-8C5E-47BE-A21B-F6F792D9CCA2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EBAE73DC-D5B7-4A57-8EAE-6C9A1FD3D77E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{28760A16-6DB5-4747-9ECC-170DFA62358E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{23A14D82-D075-417A-9B49-2D09722EF35F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DD026CDB-9031-4686-BF8C-0C9C079A52C3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E418B9FE-770E-46C3-BFB4-3CB3DD751C9E}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F01E25E4-581E-441E-BBAC-D546A4DB1012}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F6F8648E-3637-49F6-8944-1E3CC83078F8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C368DBDB-037C-47FC-8CE3-AA804A67BB11}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{60FE44F3-C124-405A-ACC3-862773A8EAB6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{67A25649-E056-4DFF-B972-B6832B32AE0A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F9EDF4FF-E992-4ACE-A5FC-048C3B449DD1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{613BC27E-629A-470A-A106-58CB70AC3FEF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12639,7 +12639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C545C81-EFD7-4DCC-8FF1-F7F944E2265E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560CD095-A30D-4E82-BCDE-4E91F3C3C620}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13866,18 +13866,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2BF29DD3-6CA0-4A30-9914-FF874A50DB10}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2586369C-278A-4DEC-8D51-6CABD5AC9B2C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{78883320-8CDA-44CF-9276-C014191C49B0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{167338D9-0E2E-4E2A-A822-94F2398FCE0B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C5A7A542-7CE4-4BB0-AFE4-8832FF04003B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7F96D656-D388-4CE7-8707-0FCE96FB8659}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2EFBB417-1A5E-4805-A229-1E687D644E3D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A1D03ED2-DA4D-4A45-A2AF-F60BCF651B04}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FE9F7E67-92D8-46B2-A675-68B32CBA954D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AE6DACBF-27B6-407A-9F71-7737A99256E3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{334A29CF-535E-42BD-8C33-81022E73A67E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B46EA02B-D6CC-4599-AD46-163ED2A2843C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{891CB29B-95B4-460C-BE28-78406B2FEE5A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A8987CCF-A803-44C1-8DBD-DF9EDA6F62D6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{59045EEB-A433-488D-9EC5-2A393A3CD119}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9B1B0FCF-F3CE-41E3-A0BC-1934149D61FE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{87A0F20A-6494-4387-A224-ECFFE7B009F6}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3B6CABCB-064F-40C3-BCD3-5BD079F9864D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{61E660D7-50E6-434E-8A65-20C27E736911}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{837E44AF-09FA-47F7-8108-C21BA3456D9B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{921FE94A-3E34-48D2-B109-90400638E3EE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9AC6D8AC-2DEE-432E-96EF-A83A08A4B9F5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DC975B05-D8E2-4FB3-B0E1-A869CADDE261}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1499CFC3-CED4-4B2A-9A14-E7C5D545F43D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13890,7 +13890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA48DCC-CB56-4A0F-8774-C8D721019A5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAC22C3-4F60-457E-BEC3-CA10F42A75B5}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15113,18 +15113,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3ED58E0B-3103-43C8-B835-17E30C496DE8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{99527054-17F8-4319-8436-C4D1F9743F35}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7E1E9146-B690-4BCC-A14A-86C4391E49A4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EE9D80BB-1E61-40EA-A463-2E8EB374861E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C61975D0-02BE-4435-B26E-0207528536A0}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{35E8587E-8C8C-4A1D-A1A4-14DB80B2F319}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17B37F14-E26D-42C7-B6CA-81C33C0B5097}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{93CD84BF-B25E-4032-9F42-5D005CF3EA56}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DE92DA8B-96D3-46B1-A064-EEC823A188A7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{74FBF791-7909-4651-9821-3B06B12645C5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F9FFC4EB-A190-4C6F-A6B4-D94F25BA0A83}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{61466C94-9722-448A-A926-8E7E624F3511}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{75169292-5B41-40DF-8EA0-EFDD2EB1983E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{61933541-16F1-4C23-AD35-E7B5A13E7E6D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1478CA9E-AC95-4CD3-A3DA-67288499F702}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D19CC46D-5AE3-4104-8891-D787FEF68997}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{03BB2960-7655-4F63-B91E-39BC7D155544}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{31D6C4B1-1457-45B7-8AC5-574DA1C1EDCF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4D0DE8C1-2968-4B8B-B728-A8919B6611C1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{49BD54D7-ED3E-4DB0-856D-A132FD503193}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FE0AD3D9-A44B-47CC-9B55-9AAF33F78EA5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E89E3C51-AF05-447F-B94A-A54BBF5B8F5D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23EED6FE-7830-4D7F-8BAD-264E8DE15D54}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7D32E03A-88CA-456E-AF81-13927CDE0545}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15137,7 +15137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E679BB-61D4-4639-A1EE-A210F2E011E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7753914A-4A38-4549-A9DA-3FF7DA6540DB}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16360,18 +16360,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D722D90F-4614-4835-913C-8388F03F2E33}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D5223DE-5DA9-4AAD-B7AB-AB3FD8D2B321}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{15FB7E79-6408-4FFD-BDA5-37F5677F97C9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D8205E24-90EE-4FA2-85B4-6DEB204CB437}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D7E75B43-8475-41BE-AB5D-1AA64F9EA0AD}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{45D521FF-957B-4507-9582-FFD81462B29C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DE41ED7F-C161-49B3-9D64-82B522DEB3FD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C092F8A-CD45-4443-9F0B-7E9C4F04195D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D3C64FF2-C85D-4F07-8390-00A1F9606D6D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D12DD03E-3C39-400F-89D1-E69A2C94159B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7044F203-D742-4D56-9429-9A45A2D73BC3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1C4175C9-B988-409C-B410-32EE423DC6BC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A82880D0-5938-449E-A3A3-3FAE2DD15F10}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7C1C6F92-34CA-4FD3-AF2B-B6ED8E46A9F8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BC736F70-ACA7-48D2-87CB-66318852DE5A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BA5CE9CE-A73C-43B8-8489-B12AB941617F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3BFD6038-D5E1-4162-8791-8141D4234C26}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{335E321B-7985-4D2C-BA92-5FA4B12CA1B6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{514433F1-6BA4-4E02-A44E-28F40D7292E7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{94255398-2ACA-4133-ABFA-14E79B34FB0E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{66765A96-D20C-45A8-970B-2DC2414CB80B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5CC3C815-0F85-409D-8F11-CF230B3E8658}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0589FCCA-A5AC-4473-B974-755C4EC1787C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CBCECB01-B170-406E-8742-C419FF5C67CF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
